--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33782\Desktop\Mémoire F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AAAE19A-1EBC-4DE0-8E90-2BE38D4510CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABAC14B-B743-40D8-9C24-1BADD9FCF1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1860" windowWidth="14400" windowHeight="7270" xr2:uid="{9E121868-0EED-4B9B-B10B-A4E824DFF13F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E121868-0EED-4B9B-B10B-A4E824DFF13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -71,47 +71,55 @@
     <t>Sauber</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/mclaren.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/williams.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/ferrari.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/mercedes.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/sauber.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/redbull.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/rb.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/astonmartin.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/haas.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Team/alpine.jpg</t>
-  </si>
-  <si>
     <t>Photo url</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/rb.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/mclaren.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/williams.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/ferrari.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/redbull.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/astonmartin.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/haas.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/alpine.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/mercedes.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Team/sauber.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,7 +487,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,38 +497,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -525,51 +536,63 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{45D011E4-66AA-48D3-89DA-FB2982F62A3D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{32E2C78E-D224-43D7-83D4-A051F8400A98}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9293F6A7-464B-4B61-BD2C-01D0798D0EB7}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{7741A2A4-42C0-4BA6-AE9D-304387799F17}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{8909C657-5D6C-4E88-B7AD-306BD2030447}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{7ED6E84D-8E2C-487D-91FF-BB423AFA7787}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C8C391BB-28AB-47F1-9291-B0F6681B8179}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{BEB73075-837F-49BD-92FA-E9A65927BE47}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B4336EAB-A568-401C-8D32-85683533629D}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{2A7E9B13-FAFC-4DC5-9E17-FE2B2F525FB3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>